--- a/editMapaGANTT/mapa de actividades.xlsx
+++ b/editMapaGANTT/mapa de actividades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyecto de software\DOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\playa\dsa\sugpaDoc\editMapaGANTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
   <si>
     <t>ACTIVIDADES DE LOS PROCESOS</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>OM</t>
-  </si>
-  <si>
-    <t>RE</t>
   </si>
   <si>
     <t>Proceso de Iniciación, Planificación y Estimación del Proyecto</t>
@@ -450,21 +447,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>modificaciones posteriores (mantenimiento correctivo, adaptativo o perfectivo).</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Retiro (RE): </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en caso de ser necesario.</t>
     </r>
   </si>
 </sst>
@@ -580,19 +562,19 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,21 +856,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K82"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M83" sqref="M83"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.140625" customWidth="1"/>
-    <col min="2" max="11" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="116.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="4.28515625" customWidth="1"/>
+    <col min="12" max="12" width="116.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,31 +902,27 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="B3" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
@@ -953,14 +932,13 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -970,29 +948,27 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
@@ -1002,73 +978,68 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="B8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1077,143 +1048,135 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K13" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1221,99 +1184,91 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="B17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="B19" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1323,17 +1278,16 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1342,15 +1296,14 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1359,33 +1312,31 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>33</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -1393,18 +1344,17 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -1412,15 +1362,14 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -1429,33 +1378,31 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -1463,18 +1410,17 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B28" s="4"/>
       <c r="C28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -1482,18 +1428,17 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -1501,31 +1446,29 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="13"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -1533,202 +1476,191 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -1736,43 +1668,40 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -1782,14 +1711,13 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -1799,14 +1727,13 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -1816,14 +1743,13 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -1833,14 +1759,13 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -1851,35 +1776,33 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K49" s="4"/>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="13"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13"/>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -1887,147 +1810,138 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K52" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="4"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12"/>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -2038,13 +1952,12 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K58" s="4"/>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -2055,31 +1968,29 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
       <c r="J59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K59" s="4"/>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
-      <c r="F60" s="13"/>
-      <c r="G60" s="13"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13"/>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="B61" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
@@ -2089,51 +2000,48 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -2144,11 +2052,10 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K64" s="4"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2159,9 +2066,8 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2172,11 +2078,10 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2187,11 +2092,10 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2202,11 +2106,10 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2217,11 +2120,10 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2232,11 +2134,10 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2247,11 +2148,10 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2262,11 +2162,10 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="11" t="s">
-        <v>63</v>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>62</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2277,10 +2176,9 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
+    </row>
+    <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="15"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2290,11 +2188,10 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="11" t="s">
-        <v>64</v>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2305,10 +2202,9 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
+    </row>
+    <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="15"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2318,11 +2214,10 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>65</v>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="15" t="s">
+        <v>64</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2333,10 +2228,9 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="15"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2346,11 +2240,10 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-    </row>
-    <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="16" t="s">
-        <v>84</v>
+    </row>
+    <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>83</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2361,10 +2254,9 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2374,12 +2266,9 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>85</v>
-      </c>
+    </row>
+    <row r="81" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="11"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2389,41 +2278,26 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="1:11" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-      <c r="G82" s="3"/>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B22:K22"/>
+  <mergeCells count="17">
+    <mergeCell ref="B60:J60"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B22:J22"/>
     <mergeCell ref="A79:A80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B5:K5"/>
-    <mergeCell ref="B10:K10"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B30:K30"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B50:J50"/>
     <mergeCell ref="A75:A76"/>
     <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B56:K56"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B56:J56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>

--- a/editMapaGANTT/mapa de actividades.xlsx
+++ b/editMapaGANTT/mapa de actividades.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mapa de actividades" sheetId="1" r:id="rId1"/>
+    <sheet name="vista impresion" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="85">
   <si>
     <t>ACTIVIDADES DE LOS PROCESOS</t>
   </si>
@@ -448,6 +449,9 @@
       </rPr>
       <t>modificaciones posteriores (mantenimiento correctivo, adaptativo o perfectivo).</t>
     </r>
+  </si>
+  <si>
+    <t>Fig.III.A.1.</t>
   </si>
 </sst>
 </file>
@@ -479,7 +483,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -528,11 +532,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -550,15 +563,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -574,6 +581,31 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -858,9 +890,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="A81:XFD81"/>
+    <sheetView view="pageLayout" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,18 +981,18 @@
       <c r="J4" s="4"/>
     </row>
     <row r="5" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
@@ -1053,15 +1084,15 @@
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -1157,15 +1188,15 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
@@ -1253,15 +1284,15 @@
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
@@ -1317,15 +1348,15 @@
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
@@ -1383,15 +1414,15 @@
       <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="12"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
@@ -1451,15 +1482,15 @@
       <c r="A30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
@@ -1571,15 +1602,15 @@
       <c r="A37" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
@@ -1779,293 +1810,313 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A51" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
+      <c r="B51" s="15"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J52" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H53" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J53" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
+        <v>54</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="J55" s="4"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J56" s="10"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="16"/>
-      <c r="I56" s="16"/>
-      <c r="J56" s="16"/>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="14"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4" t="s">
-        <v>66</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B60" s="12"/>
-      <c r="C60" s="12"/>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
+        <v>72</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
+        <v>73</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-      <c r="J64" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
@@ -2080,9 +2131,7 @@
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>65</v>
-      </c>
+      <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -2093,9 +2142,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
-    <row r="68" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="8" t="s">
-        <v>57</v>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2108,8 +2157,8 @@
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>58</v>
+      <c r="A69" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2122,8 +2171,8 @@
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>59</v>
+      <c r="A70" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2135,9 +2184,9 @@
       <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>60</v>
+    <row r="71" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2151,7 +2200,7 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2163,9 +2212,9 @@
       <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="15" t="s">
-        <v>62</v>
+    <row r="73" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2178,7 +2227,9 @@
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
+      <c r="A74" s="13" t="s">
+        <v>62</v>
+      </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -2189,10 +2240,8 @@
       <c r="I74" s="3"/>
       <c r="J74" s="3"/>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A75" s="15" t="s">
-        <v>63</v>
-      </c>
+    <row r="75" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -2204,7 +2253,9 @@
       <c r="J75" s="3"/>
     </row>
     <row r="76" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
+      <c r="A76" s="13" t="s">
+        <v>63</v>
+      </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -2215,10 +2266,8 @@
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="15" t="s">
-        <v>64</v>
-      </c>
+    <row r="77" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -2229,8 +2278,10 @@
       <c r="I77" s="3"/>
       <c r="J77" s="3"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
+    <row r="78" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>64</v>
+      </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -2242,9 +2293,7 @@
       <c r="J78" s="3"/>
     </row>
     <row r="79" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13" t="s">
-        <v>83</v>
-      </c>
+      <c r="A79" s="13"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -2255,8 +2304,10 @@
       <c r="I79" s="3"/>
       <c r="J79" s="3"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
+    <row r="80" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="11" t="s">
+        <v>83</v>
+      </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
@@ -2268,7 +2319,7 @@
       <c r="J80" s="3"/>
     </row>
     <row r="81" spans="1:10" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -2280,11 +2331,8 @@
       <c r="J81" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B60:J60"/>
-    <mergeCell ref="A73:A74"/>
+  <mergeCells count="11">
     <mergeCell ref="B22:J22"/>
-    <mergeCell ref="A79:A80"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B5:J5"/>
     <mergeCell ref="B10:J10"/>
@@ -2294,10 +2342,1407 @@
     <mergeCell ref="B26:J26"/>
     <mergeCell ref="B30:J30"/>
     <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B51:J51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="10" width="3.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" s="10"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="15"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J45" s="10"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J46" s="10"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J47" s="10"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J48" s="10"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" s="10"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="10"/>
+      <c r="C51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J52" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="10"/>
+      <c r="C55" s="10"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I55" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="J55" s="10"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="14"/>
+      <c r="H56" s="14"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B57" s="10"/>
+      <c r="C57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B58" s="10"/>
+      <c r="C58" s="10"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B59" s="10"/>
+      <c r="C59" s="10"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="10"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B64" s="10"/>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="23"/>
+      <c r="C65" s="23"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="17"/>
+      <c r="J66" s="17"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="18"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="19"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="17"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="20"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="17"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="20"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="17"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="17"/>
+      <c r="J71" s="17"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="21"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="17"/>
+      <c r="J72" s="17"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="19"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="17"/>
+      <c r="J73" s="17"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="19"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="19"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="19"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="19"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="17"/>
+      <c r="J77" s="17"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="19"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="17"/>
+      <c r="J78" s="17"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="22"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="17"/>
+      <c r="J79" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B26:J26"/>
+    <mergeCell ref="B30:J30"/>
+    <mergeCell ref="B37:J37"/>
+    <mergeCell ref="B44:J44"/>
     <mergeCell ref="B50:J50"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="A65:J65"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="B22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
